--- a/metadata_dra.xlsx
+++ b/metadata_dra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuichi\submission-excel2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588A920E-74CF-459A-8685-CE8E08480075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E7D305-E6E8-4F7F-BB36-D850B2728627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="430" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Experiment" sheetId="2" r:id="rId3"/>
     <sheet name="Run" sheetId="3" r:id="rId4"/>
     <sheet name="Run-file" sheetId="4" r:id="rId5"/>
-    <sheet name="Admin" sheetId="7" r:id="rId6"/>
+    <sheet name="Analysis" sheetId="10" r:id="rId6"/>
+    <sheet name="Admin" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -226,8 +227,180 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>児玉悠一</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D2221C17-2AF7-4196-8B0E-F306640BABD5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter unique aliases in the format 'Analysis-n' (e.g. Analysis-1). 
+Do NOT use the 'DRA submission ID_Analysis_n' format (e.g. 'test-0001_Analysis_0001').</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DDB34F3A-416B-49C3-8EFD-28EBA73775AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter BioSample accession(s). List more than one accession by delimiting "," (comma). Serial accessions can be specified by connecting start and end accessions with "-" (hyphen).
+Examples;
+"SAMD00000001"
+"SAMD0000001,SAMD0000003"
+"SAMD0000001-SAMD0000010"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3B44EF7F-C604-4CDF-BE76-96A1ED19B734}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter analysis data filename(s). List more than one file by delimiting "," (comma).
+Examples;
+"analysis1.fasta"
+"analysis1.fasta,analysis2.fasta"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EF4580E6-9B42-4EB9-9E07-B2B7C9E253C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter filetype(s). If one filetype is entered for files, we assume that all files are the same filetype. If files are mix of filetypes, list the same number of filetypes by delimiting "," (comma).
+See all filetypes at
+https://www.ddbj.nig.ac.jp/dra/metadata-e.html#Analysis_File_Type
+Examples:
+"fasta"
+"fasta,tab" for "analysis1.fasta,reference.txt" files.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{923775D0-5B3F-4BA4-9E20-CCA38E69EDCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter md5 checksum(s) of analysis data files. 
+List checksums by delimiting "," (comma).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C02BB8E9-03F5-488D-ADAC-5DEDFED33ABC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>A name or an Assembly accession of reference sequences. Necessary when the Analysis type is REFERENCE_ALIGNMENT.
+Examples:
+"GRCh38"
+"GCF_000001405.40"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0B2B76D4-CE3D-4C03-A201-F198E6D23B44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter analysis step(s). Describe a step in format "analysis name:program name:program version". List steps by delimiting steps with "," (comma) in the order of actual analysis.
+Examples:
+"alignment:Burrows-Wheller-Aligner:0.7.10,trimming:fastx-clipper:1.1.2-318"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{34BDBC9D-3F63-4313-A6FD-8491FFA1CD32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter custom attribute(s). Enter an attribute in format "attribute name:value". List attributes by delimiting "," (comma).
+Examples:
+"metagenome_assembly:binned,completeness:90;contamination:0"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="197">
   <si>
     <t>Library Source</t>
   </si>
@@ -695,11 +868,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>This excel file is used to generate Submission, Experiment and Run XMLs for DDBJ Sequence Read Archive (DRA) submission. 
-Please see https://github.com/ddbj/submission-excel2xml for details.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BioProject accession</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -767,12 +935,91 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>v1.5</t>
+    <t>2023-09-04 Bioinformation and DDBJ Center</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2023-02-06 Bioinformation and DDBJ Center</t>
+    <t>v1.6</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>This excel file is used to generate Submission, Experiment, Run and Analysis XMLs for DDBJ Sequence Read Archive (DRA) submission. 
+Analysis submission is optional.
+Analysis-only submission is NOT acceptable. Submit Analysis in a DRA Submission which has Run(s).
+Please see https://github.com/ddbj/submission-excel2xml for details.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Analysis Type</t>
+  </si>
+  <si>
+    <t>BioSample</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Reference</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Analysis step</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Attributes</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Analysis type</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>File Type</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>DE_NOVO_ASSEMBLY</t>
+  </si>
+  <si>
+    <t>ace</t>
+  </si>
+  <si>
+    <t>REFERENCE_ALIGNMENT</t>
+  </si>
+  <si>
+    <t>SEQUENCE_ANNOTATION</t>
+  </si>
+  <si>
+    <t>ABUNDANCE_MEASUREMENT</t>
+  </si>
+  <si>
+    <t>fasta</t>
+  </si>
+  <si>
+    <t>wig</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>vcf</t>
+  </si>
+  <si>
+    <t>maf</t>
+  </si>
+  <si>
+    <t>gff</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>tsv</t>
   </si>
 </sst>
 </file>
@@ -783,7 +1030,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -844,6 +1091,19 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -888,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <protection locked="0"/>
     </xf>
@@ -932,6 +1192,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1224,17 +1493,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="143.1796875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="143.21875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1242,9 +1513,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="25">
+    <row r="4" spans="1:1" ht="52.8">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1273,13 +1544,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1293,7 +1564,7 @@
         <v>126</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1329,20 +1600,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="25.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1374,10 +1645,10 @@
         <v>12</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1432,12 +1703,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="2"/>
+    <col min="3" max="3" width="29.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1467,12 +1738,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -27885,25 +28156,96 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD617903-5CEF-426A-BD24-EE2148FD162E}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6EE56BC8-BFFD-4E40-B331-4266CFFF3A32}">
+          <x14:formula1>
+            <xm:f>Admin!$G$2:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1002</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0ABFB987-134A-4747-B65C-0EA00CF1181D}">
+          <x14:formula1>
+            <xm:f>Admin!$H$2:$H$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1002</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -27917,13 +28259,17 @@
         <v>12</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
@@ -27942,10 +28288,14 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
@@ -27961,13 +28311,17 @@
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
@@ -27986,8 +28340,12 @@
       <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
@@ -28006,8 +28364,12 @@
       <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
@@ -28026,8 +28388,10 @@
       <c r="F6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
@@ -28046,8 +28410,10 @@
       <c r="F7" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
@@ -28063,8 +28429,10 @@
         <v>40</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
@@ -28080,8 +28448,10 @@
         <v>42</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
@@ -28098,8 +28468,10 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5"/>
@@ -28114,8 +28486,10 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8"/>
@@ -28130,8 +28504,10 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5"/>
@@ -28286,7 +28662,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -28334,7 +28710,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -28350,7 +28726,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -28366,7 +28742,7 @@
         <v>75</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -28439,7 +28815,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>76</v>
@@ -28550,7 +28926,7 @@
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -28559,22 +28935,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="D41" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="D42" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="D42" s="2" t="s">
+    <row r="43" spans="1:8">
+      <c r="D43" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="D43" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
     <row r="44" spans="1:8">
       <c r="D44" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -28594,7 +28970,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="D48" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="4:4">
@@ -28619,17 +28995,17 @@
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
     <row r="55" spans="4:4">
       <c r="D55" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="4:4">

--- a/metadata_dra.xlsx
+++ b/metadata_dra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\sub2xml\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E7D305-E6E8-4F7F-BB36-D850B2728627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4C1C57-2F79-4D04-BD88-01467276C2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="430" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -267,7 +267,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3B44EF7F-C604-4CDF-BE76-96A1ED19B734}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5AB3EF0B-8FF1-4A4A-9B3C-7BE8F4A20B3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter Run accession(s). List more than one accession by delimiting "," (comma). Serial accessions can be specified by connecting start and end accessions with "-" (hyphen).
+Examples;
+"DRR000001"
+"DRR000001,DRR000003"
+"DRR000001-DRR000010"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3B44EF7F-C604-4CDF-BE76-96A1ED19B734}">
       <text>
         <r>
           <rPr>
@@ -296,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EF4580E6-9B42-4EB9-9E07-B2B7C9E253C1}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{EF4580E6-9B42-4EB9-9E07-B2B7C9E253C1}">
       <text>
         <r>
           <rPr>
@@ -316,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{923775D0-5B3F-4BA4-9E20-CCA38E69EDCE}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{923775D0-5B3F-4BA4-9E20-CCA38E69EDCE}">
       <text>
         <r>
           <rPr>
@@ -332,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C02BB8E9-03F5-488D-ADAC-5DEDFED33ABC}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{C02BB8E9-03F5-488D-ADAC-5DEDFED33ABC}">
       <text>
         <r>
           <rPr>
@@ -350,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0B2B76D4-CE3D-4C03-A201-F198E6D23B44}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{0B2B76D4-CE3D-4C03-A201-F198E6D23B44}">
       <text>
         <r>
           <rPr>
@@ -378,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{34BDBC9D-3F63-4313-A6FD-8491FFA1CD32}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{34BDBC9D-3F63-4313-A6FD-8491FFA1CD32}">
       <text>
         <r>
           <rPr>
@@ -400,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="198">
   <si>
     <t>Library Source</t>
   </si>
@@ -935,14 +954,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2023-09-04 Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v1.6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>This excel file is used to generate Submission, Experiment, Run and Analysis XMLs for DDBJ Sequence Read Archive (DRA) submission. 
 Analysis submission is optional.
 Analysis-only submission is NOT acceptable. Submit Analysis in a DRA Submission which has Run(s).
@@ -1020,6 +1031,18 @@
   </si>
   <si>
     <t>tsv</t>
+  </si>
+  <si>
+    <t>Run</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v1.7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023-11-21 Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1493,9 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -1505,17 +1526,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="52.8">
       <c r="A4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -28157,47 +28178,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD617903-5CEF-426A-BD24-EE2148FD162E}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -28217,7 +28239,7 @@
           <x14:formula1>
             <xm:f>Admin!$H$2:$H$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1002</xm:sqref>
+          <xm:sqref>H2:H1002</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -28265,10 +28287,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -28291,10 +28313,10 @@
         <v>167</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -28317,7 +28339,7 @@
         <v>135</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>24</v>
@@ -28341,7 +28363,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>19</v>
@@ -28365,10 +28387,10 @@
         <v>24</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -28390,7 +28412,7 @@
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -28412,7 +28434,7 @@
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -28431,7 +28453,7 @@
       <c r="E8" s="5"/>
       <c r="G8" s="17"/>
       <c r="H8" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -28450,7 +28472,7 @@
       <c r="E9" s="5"/>
       <c r="G9" s="17"/>
       <c r="H9" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -28470,7 +28492,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -28488,7 +28510,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -28506,7 +28528,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/metadata_dra.xlsx
+++ b/metadata_dra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\sub2xml\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4C1C57-2F79-4D04-BD88-01467276C2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D481A523-FB3D-4A99-8ACF-98FD83643997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5AB3EF0B-8FF1-4A4A-9B3C-7BE8F4A20B3C}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C17D9343-00D3-4F2D-BE92-BFED04C7D963}">
       <text>
         <r>
           <rPr>
@@ -281,8 +281,9 @@
           <t>Enter Run accession(s). List more than one accession by delimiting "," (comma). Serial accessions can be specified by connecting start and end accessions with "-" (hyphen).
 Examples;
 "DRR000001"
+"SRR000001"
 "DRR000001,DRR000003"
-"DRR000001-DRR000010"</t>
+"SRR000010-SRR000020"</t>
         </r>
       </text>
     </comment>

--- a/metadata_dra.xlsx
+++ b/metadata_dra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\sub2xml\submission-excel2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D481A523-FB3D-4A99-8ACF-98FD83643997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADFDAE2-09D0-49C3-90F0-B00B26710BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -381,9 +381,9 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>Enter analysis step(s). Describe a step in format "analysis name:program name:program version". List steps by delimiting steps with "," (comma) in the order of actual analysis.
+          <t>Enter analysis step(s). Describe a step in format "analysis name:program name:program version". List steps by delimiting steps with ";" (semicolon) in the order of actual analysis.
 Examples:
-"alignment:Burrows-Wheller-Aligner:0.7.10,trimming:fastx-clipper:1.1.2-318"</t>
+"alignment:Burrows-Wheller-Aligner:0.7.10;trimming:fastx-clipper:1.1.2-318"</t>
         </r>
         <r>
           <rPr>
@@ -409,9 +409,9 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>Enter custom attribute(s). Enter an attribute in format "attribute name:value". List attributes by delimiting "," (comma).
+          <t>Enter custom attribute(s). Enter an attribute in format "attribute name:value". List attributes by delimiting ";" (semicolon).
 Examples:
-"metagenome_assembly:binned,completeness:90;contamination:0"</t>
+"metagenome_assembly:binned;completeness:90;contamination:0"</t>
         </r>
       </text>
     </comment>
@@ -1038,11 +1038,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>v1.7</t>
+    <t>v1.8</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2023-11-21 Bioinformation and DDBJ Center</t>
+    <t>2023-12-05 Bioinformation and DDBJ Center</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1562,9 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -1721,9 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -1756,9 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D4631"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>

--- a/metadata_dra.xlsx
+++ b/metadata_dra.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\1221\submission-excel2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuichi\Desktop\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476B14C7-56AD-4ADA-986E-A6A67A5A02B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387FF7EA-E40E-4849-AB11-85B301FFE807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -70,6 +70,21 @@
           <t>YYYY-MM-DD (e.g, 2024-01-01)
 For immediate release, 
 enter date of submission.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{16C720F9-BFD8-4A3D-B3A2-9E0B94138341}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter a BioProject accession (e.g., PRJDB7252) for this submission.</t>
         </r>
       </text>
     </comment>
@@ -405,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="197">
   <si>
     <t>Library Source</t>
   </si>
@@ -1022,13 +1037,17 @@
     <t>Submitting organization</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>BioProject accession</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1159,7 +1178,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
@@ -1492,10 +1511,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="143.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="143.1796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1508,7 +1527,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="52.8">
+    <row r="4" spans="1:1" ht="50">
       <c r="A4" s="2" t="s">
         <v>169</v>
       </c>
@@ -1537,22 +1556,25 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>195</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C1" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
         <v>125</v>
       </c>
@@ -1560,10 +1582,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="B7"/>
     </row>
   </sheetData>
@@ -1582,20 +1604,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="25.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1683,12 +1705,12 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="29.90625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1716,12 +1738,12 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -28139,7 +28161,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="12.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="13" t="s">
@@ -28210,19 +28232,19 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="32.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="13">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>

--- a/metadata_dra.xlsx
+++ b/metadata_dra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuichi\Desktop\submission-excel2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\20240213\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387FF7EA-E40E-4849-AB11-85B301FFE807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DD9D98-25FA-4D54-A0E0-493C14EE68B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="213">
   <si>
     <t>Library Source</t>
   </si>
@@ -1026,20 +1026,66 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2023-12-21 Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v1.9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Submitting organization</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>BioProject accession</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2024-02-14 Bioinformation and DDBJ Center</t>
+  </si>
+  <si>
+    <t>v2.0</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G400 FAST</t>
+  </si>
+  <si>
+    <t>BGISEQ-50</t>
+  </si>
+  <si>
+    <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Element AVITI</t>
+  </si>
+  <si>
+    <t>UG 100</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Sentosa SQ301</t>
   </si>
 </sst>
 </file>
@@ -1511,23 +1557,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="143.1796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="143.21875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="50">
+    <row r="4" spans="1:1" ht="52.8">
       <c r="A4" s="2" t="s">
         <v>169</v>
       </c>
@@ -1556,22 +1602,22 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>124</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1604,20 +1650,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="25.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1687,9 +1733,9 @@
           </x14:formula1>
           <xm:sqref>G2:G3000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5DF0F4F9-0E4E-4ABA-B02F-964432F322D9}">
           <x14:formula1>
-            <xm:f>Admin!$D$2:$D$66</xm:f>
+            <xm:f>Admin!$D$2:$D$82</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I3000</xm:sqref>
         </x14:dataValidation>
@@ -1705,12 +1751,12 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="1"/>
+    <col min="3" max="3" width="29.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1738,12 +1784,12 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -28161,7 +28207,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="13" t="s">
@@ -28228,23 +28274,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13">
+    <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -28281,7 +28327,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -28307,7 +28353,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>168</v>
@@ -28333,7 +28379,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
@@ -28357,7 +28403,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
@@ -28381,7 +28427,7 @@
         <v>106</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
@@ -28403,7 +28449,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
@@ -28425,7 +28471,7 @@
         <v>105</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4"/>
       <c r="G8" s="16"/>
@@ -28444,7 +28490,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="16"/>
@@ -28463,7 +28509,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -28481,7 +28527,7 @@
         <v>108</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -28499,7 +28545,7 @@
         <v>109</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -28517,7 +28563,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -28533,7 +28579,7 @@
         <v>107</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -28549,7 +28595,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -28565,7 +28611,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -28581,7 +28627,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -28597,7 +28643,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -28613,7 +28659,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -28629,7 +28675,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -28645,7 +28691,7 @@
         <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -28661,7 +28707,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -28693,7 +28739,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -28709,7 +28755,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -28725,7 +28771,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -28741,7 +28787,7 @@
         <v>75</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -28757,7 +28803,7 @@
         <v>78</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -28773,7 +28819,7 @@
         <v>146</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -28789,7 +28835,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -28803,7 +28849,7 @@
         <v>83</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -28817,7 +28863,7 @@
         <v>150</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -28831,7 +28877,7 @@
         <v>85</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -28845,7 +28891,7 @@
         <v>87</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -28859,7 +28905,7 @@
         <v>111</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -28873,7 +28919,7 @@
         <v>110</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -28887,7 +28933,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -28901,7 +28947,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -28913,7 +28959,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -28925,7 +28971,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -28934,131 +28980,211 @@
     </row>
     <row r="41" spans="1:8">
       <c r="D41" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="D42" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="D43" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="D44" s="1" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="D45" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="D46" s="4" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="D47" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="D48" s="1" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="1" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="1" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="1" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" s="1" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="1" t="s">
         <v>80</v>
       </c>
     </row>

--- a/metadata_dra.xlsx
+++ b/metadata_dra.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\20240213\submission-excel2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DD9D98-25FA-4D54-A0E0-493C14EE68B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE264F4D-B306-4299-9C4A-91934390C373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
-    <sheet name="Submission" sheetId="8" r:id="rId2"/>
-    <sheet name="Experiment" sheetId="2" r:id="rId3"/>
-    <sheet name="Run" sheetId="3" r:id="rId4"/>
-    <sheet name="Run-file" sheetId="4" r:id="rId5"/>
-    <sheet name="Analysis" sheetId="10" r:id="rId6"/>
+    <sheet name="DRA_Submission" sheetId="8" r:id="rId2"/>
+    <sheet name="DRA_Experiment" sheetId="2" r:id="rId3"/>
+    <sheet name="DRA_Run" sheetId="3" r:id="rId4"/>
+    <sheet name="DRA_Run-file" sheetId="4" r:id="rId5"/>
+    <sheet name="DRA_Analysis" sheetId="10" r:id="rId6"/>
     <sheet name="Admin" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -1034,12 +1034,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2024-02-14 Bioinformation and DDBJ Center</t>
-  </si>
-  <si>
-    <t>v2.0</t>
-  </si>
-  <si>
     <t>Illumina HiSeq X</t>
   </si>
   <si>
@@ -1086,6 +1080,14 @@
   </si>
   <si>
     <t>Sentosa SQ301</t>
+  </si>
+  <si>
+    <t>2024-07-05 Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v3.0</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1565,12 +1567,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="52.8">
@@ -28579,7 +28581,7 @@
         <v>107</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -28643,7 +28645,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -28755,7 +28757,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -28835,7 +28837,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -28905,7 +28907,7 @@
         <v>111</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -28919,7 +28921,7 @@
         <v>110</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -28933,7 +28935,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -29015,7 +29017,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="D48" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="4:4">
@@ -29085,42 +29087,42 @@
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="1" t="s">
+    <row r="65" spans="4:4">
+      <c r="D65" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="1" t="s">
+    <row r="66" spans="4:4">
+      <c r="D66" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="1" t="s">
+    <row r="67" spans="4:4">
+      <c r="D67" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="1" t="s">
+    <row r="68" spans="4:4">
+      <c r="D68" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="4:4">
-      <c r="D67" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
     <row r="69" spans="4:4">
       <c r="D69" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="4:4">

--- a/metadata_dra.xlsx
+++ b/metadata_dra.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\1023\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE264F4D-B306-4299-9C4A-91934390C373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4FED7E-5C56-446F-9B98-77307729F7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,11 +1082,11 @@
     <t>Sentosa SQ301</t>
   </si>
   <si>
-    <t>2024-07-05 Bioinformation and DDBJ Center</t>
+    <t>v3.1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>v3.0</t>
+    <t>2024-10-23 Bioinformation and DDBJ Center</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1567,12 +1567,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="52.8">
@@ -28278,7 +28278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
